--- a/AxaIreland/src/test/java/Test/Data.xlsx
+++ b/AxaIreland/src/test/java/Test/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\eclipse-workspace\AxaIreland\src\test\java\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\git\LocalAxaIrelandRepo\AxaIreland\src\test\java\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D67482-F1F8-4E5C-8603-6852A608F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226AA998-B9F7-476D-B02A-8E5631FE606D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22155" yWindow="1680" windowWidth="10650" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>Registration</t>
   </si>
@@ -169,6 +169,45 @@
   </si>
   <si>
     <t>test.test@outlook.com</t>
+  </si>
+  <si>
+    <t>InsuranceExpiryQuestion</t>
+  </si>
+  <si>
+    <t>IsPolicyRefused</t>
+  </si>
+  <si>
+    <t>IsCarModified</t>
+  </si>
+  <si>
+    <t>EstimatedCarValue</t>
+  </si>
+  <si>
+    <t>CarValue</t>
+  </si>
+  <si>
+    <t>5,001 to 7,000</t>
+  </si>
+  <si>
+    <t>DidYouPurchaseACar</t>
+  </si>
+  <si>
+    <t>IsRegisterToYourSpouse</t>
+  </si>
+  <si>
+    <t>ClaimDeclined</t>
+  </si>
+  <si>
+    <t>ProsecutionPending</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>MedicalCondition</t>
+  </si>
+  <si>
+    <t>MainDriver</t>
   </si>
 </sst>
 </file>
@@ -539,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B797212C-4A4F-4E69-B18B-848B77FDFCD4}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +596,18 @@
     <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.28515625" customWidth="1"/>
+    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -647,8 +695,41 @@
       <c r="AC1" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="AD1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -736,8 +817,41 @@
       <c r="AC2" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="AD2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -824,6 +938,39 @@
       </c>
       <c r="AC3" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
